--- a/Code/Results/Cases/Case_5_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_206/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.604208786602328</v>
+        <v>1.023065755193443</v>
       </c>
       <c r="C2">
-        <v>0.6149946890946296</v>
+        <v>0.1927725476481896</v>
       </c>
       <c r="D2">
-        <v>0.1839524743971452</v>
+        <v>0.207869663336254</v>
       </c>
       <c r="E2">
-        <v>0.1676644369986278</v>
+        <v>0.1706476245223456</v>
       </c>
       <c r="F2">
-        <v>0.8853640815082429</v>
+        <v>1.255145777563001</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1945155304485553</v>
+        <v>0.1839599612594895</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.6800805385245638</v>
+        <v>1.056347490988209</v>
       </c>
       <c r="O2">
-        <v>1.951773254048561</v>
+        <v>2.887423348435817</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.261922312591025</v>
+        <v>0.9226797810773064</v>
       </c>
       <c r="C3">
-        <v>0.5366023268583433</v>
+        <v>0.1685860552133249</v>
       </c>
       <c r="D3">
-        <v>0.1642339033657407</v>
+        <v>0.2033822855064784</v>
       </c>
       <c r="E3">
-        <v>0.1494768190221443</v>
+        <v>0.1668010292405455</v>
       </c>
       <c r="F3">
-        <v>0.816999955447983</v>
+        <v>1.248864296630501</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1731655466297326</v>
+        <v>0.1796355010558415</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.696008208286095</v>
+        <v>1.064277073866833</v>
       </c>
       <c r="O3">
-        <v>1.816019115664972</v>
+        <v>2.881533560150871</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.052405685514145</v>
+        <v>0.8611533150804576</v>
       </c>
       <c r="C4">
-        <v>0.4885004239343687</v>
+        <v>0.1536945318088669</v>
       </c>
       <c r="D4">
-        <v>0.1522551943180304</v>
+        <v>0.2007029652278334</v>
       </c>
       <c r="E4">
-        <v>0.1384898710238751</v>
+        <v>0.1645237336687053</v>
       </c>
       <c r="F4">
-        <v>0.7768554177944793</v>
+        <v>1.245831171726437</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1603243164978991</v>
+        <v>0.1770892791536269</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.706816290117338</v>
+        <v>1.069608717379921</v>
       </c>
       <c r="O4">
-        <v>1.737432040615744</v>
+        <v>2.879976776102978</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.967152393235239</v>
+        <v>0.8361099128395324</v>
       </c>
       <c r="C5">
-        <v>0.4688995325232668</v>
+        <v>0.1476161486325509</v>
       </c>
       <c r="D5">
-        <v>0.1474033473025997</v>
+        <v>0.199630304737255</v>
       </c>
       <c r="E5">
-        <v>0.134054065143232</v>
+        <v>0.1636169988557015</v>
       </c>
       <c r="F5">
-        <v>0.7609252853070529</v>
+        <v>1.244802045488129</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1551528816228469</v>
+        <v>0.1760790637621525</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0.7114703995307678</v>
+        <v>1.071897886162361</v>
       </c>
       <c r="O5">
-        <v>1.706525086841793</v>
+        <v>2.879859350500169</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.953002757593481</v>
+        <v>0.8319532710856663</v>
       </c>
       <c r="C6">
-        <v>0.4656446901430229</v>
+        <v>0.1466062453235679</v>
       </c>
       <c r="D6">
-        <v>0.1465994104958241</v>
+        <v>0.1994533515173913</v>
       </c>
       <c r="E6">
-        <v>0.133319898136314</v>
+        <v>0.1634677223633823</v>
       </c>
       <c r="F6">
-        <v>0.7583051298169678</v>
+        <v>1.244643649030728</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.154297716644173</v>
+        <v>0.1759129719728563</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7122580440094097</v>
+        <v>1.07228503891784</v>
       </c>
       <c r="O6">
-        <v>1.701458256332188</v>
+        <v>2.879871049352658</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.05125546466229</v>
+        <v>0.8608154514010948</v>
       </c>
       <c r="C7">
-        <v>0.4882360840207696</v>
+        <v>0.1536125965313602</v>
       </c>
       <c r="D7">
-        <v>0.1521896443935873</v>
+        <v>0.2006884211612459</v>
       </c>
       <c r="E7">
-        <v>0.1384298852708525</v>
+        <v>0.1645114189223023</v>
       </c>
       <c r="F7">
-        <v>0.7766388813172824</v>
+        <v>1.245816455169162</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1602543313218447</v>
+        <v>0.1770755441596066</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0.7068780572774571</v>
+        <v>1.069639118158605</v>
       </c>
       <c r="O7">
-        <v>1.737010795577476</v>
+        <v>2.879973100468391</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.486030879462533</v>
+        <v>0.9884303583442033</v>
       </c>
       <c r="C8">
-        <v>0.5879542039027115</v>
+        <v>0.1844417240303926</v>
       </c>
       <c r="D8">
-        <v>0.177125109954531</v>
+        <v>0.2063067025765832</v>
       </c>
       <c r="E8">
-        <v>0.1613535101571273</v>
+        <v>0.1693037883257276</v>
       </c>
       <c r="F8">
-        <v>0.8613925704981682</v>
+        <v>1.252808809370407</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1870948482106201</v>
+        <v>0.1824462465179408</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.6853534458038979</v>
+        <v>1.058985601662734</v>
       </c>
       <c r="O8">
-        <v>1.90392594005462</v>
+        <v>2.884964521375366</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.345587140903433</v>
+        <v>1.23952128261061</v>
       </c>
       <c r="C9">
-        <v>0.784093293932898</v>
+        <v>0.2445615781982156</v>
       </c>
       <c r="D9">
-        <v>0.2271788202370999</v>
+        <v>0.2179236783230749</v>
       </c>
       <c r="E9">
-        <v>0.2079262496112975</v>
+        <v>0.1793718603240748</v>
       </c>
       <c r="F9">
-        <v>1.043641024526821</v>
+        <v>1.273070072568558</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.2421378150231988</v>
+        <v>0.1938449379016163</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.6517300694261934</v>
+        <v>1.041762886983051</v>
       </c>
       <c r="O9">
-        <v>2.272955101639923</v>
+        <v>2.911141077063832</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.984127915484748</v>
+        <v>1.424471702277174</v>
       </c>
       <c r="C10">
-        <v>0.9290899931539229</v>
+        <v>0.288515908351286</v>
       </c>
       <c r="D10">
-        <v>0.2648625981276211</v>
+        <v>0.2268211270905738</v>
       </c>
       <c r="E10">
-        <v>0.2434151994439659</v>
+        <v>0.1871778862981373</v>
       </c>
       <c r="F10">
-        <v>1.189590224092669</v>
+        <v>1.291970975281203</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2844742496895094</v>
+        <v>0.202751576907886</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.6328946333172709</v>
+        <v>1.031341643504305</v>
       </c>
       <c r="O10">
-        <v>2.575321226408136</v>
+        <v>2.940435813039528</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>4.27682083748067</v>
+        <v>1.508706660822043</v>
       </c>
       <c r="C11">
-        <v>0.9953780790373514</v>
+        <v>0.308462990223461</v>
       </c>
       <c r="D11">
-        <v>0.282253080783093</v>
+        <v>0.2309469371558919</v>
       </c>
       <c r="E11">
-        <v>0.2599052495155405</v>
+        <v>0.1908180179119228</v>
       </c>
       <c r="F11">
-        <v>1.259151827607184</v>
+        <v>1.301446358644796</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3042498366352646</v>
+        <v>0.2069198117532665</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.6257525902856997</v>
+        <v>1.02708470926904</v>
       </c>
       <c r="O11">
-        <v>2.721065193466558</v>
+        <v>2.955963794899986</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>4.38803566352351</v>
+        <v>1.540617658665553</v>
       </c>
       <c r="C12">
-        <v>1.020538673156864</v>
+        <v>0.3160092671065797</v>
       </c>
       <c r="D12">
-        <v>0.2888785037527839</v>
+        <v>0.2325204645426311</v>
       </c>
       <c r="E12">
-        <v>0.2662055736661486</v>
+        <v>0.1922092487580187</v>
       </c>
       <c r="F12">
-        <v>1.285998396942645</v>
+        <v>1.305160925925193</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.3118220232919526</v>
+        <v>0.2085150194369163</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0.6232670790187811</v>
+        <v>1.02554222902755</v>
       </c>
       <c r="O12">
-        <v>2.777560983556668</v>
+        <v>2.962161591097868</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>4.364065729132278</v>
+        <v>1.533744495399219</v>
       </c>
       <c r="C13">
-        <v>1.015117081625846</v>
+        <v>0.3143843694167003</v>
       </c>
       <c r="D13">
-        <v>0.2874497467292514</v>
+        <v>0.2321810817752947</v>
       </c>
       <c r="E13">
-        <v>0.2648460963733115</v>
+        <v>0.1919090537717381</v>
       </c>
       <c r="F13">
-        <v>1.280193211377508</v>
+        <v>1.304355299006957</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3101873421385761</v>
+        <v>0.2081707158658901</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0.6237924037479843</v>
+        <v>1.025871337917366</v>
       </c>
       <c r="O13">
-        <v>2.76533339356692</v>
+        <v>2.960812638224553</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>4.285962605597092</v>
+        <v>1.511331744020083</v>
       </c>
       <c r="C14">
-        <v>0.997446809249027</v>
+        <v>0.309083974285187</v>
       </c>
       <c r="D14">
-        <v>0.2827973298212072</v>
+        <v>0.2310761687940754</v>
       </c>
       <c r="E14">
-        <v>0.260422423546359</v>
+        <v>0.1909322190827254</v>
       </c>
       <c r="F14">
-        <v>1.2613500899879</v>
+        <v>1.301749422487234</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.3048710732271331</v>
+        <v>0.2070507138490711</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0.6255436325472132</v>
+        <v>1.026956415208005</v>
       </c>
       <c r="O14">
-        <v>2.725686201470154</v>
+        <v>2.956467318163504</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>4.238173316990128</v>
+        <v>1.49760494594733</v>
       </c>
       <c r="C15">
-        <v>0.9866312666457588</v>
+        <v>0.305836374589461</v>
       </c>
       <c r="D15">
-        <v>0.2799529384777628</v>
+        <v>0.2304008300598639</v>
       </c>
       <c r="E15">
-        <v>0.2577202675542409</v>
+        <v>0.1903355447879989</v>
       </c>
       <c r="F15">
-        <v>1.249875451403753</v>
+        <v>1.300169723547157</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.3016258827307041</v>
+        <v>0.2063668673021084</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.6266452661200645</v>
+        <v>1.027630110142908</v>
       </c>
       <c r="O15">
-        <v>2.701575148393204</v>
+        <v>2.953847088695142</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.965049334959872</v>
+        <v>1.418968648510599</v>
       </c>
       <c r="C16">
-        <v>0.9247654782534767</v>
+        <v>0.2872113242813157</v>
       </c>
       <c r="D16">
-        <v>0.2637314438395606</v>
+        <v>0.2265530639960787</v>
       </c>
       <c r="E16">
-        <v>0.2423450115583279</v>
+        <v>0.1869417865490348</v>
       </c>
       <c r="F16">
-        <v>1.185112105199693</v>
+        <v>1.291369414790438</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2831930416522255</v>
+        <v>0.2024815207006014</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0.6333912494312557</v>
+        <v>1.031629575323244</v>
       </c>
       <c r="O16">
-        <v>2.565972070231993</v>
+        <v>2.939465419121035</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.798105299500605</v>
+        <v>1.370752502622054</v>
       </c>
       <c r="C17">
-        <v>0.8869047803971171</v>
+        <v>0.2757729229537631</v>
       </c>
       <c r="D17">
-        <v>0.253846583738806</v>
+        <v>0.2242125792822804</v>
       </c>
       <c r="E17">
-        <v>0.2330056137860268</v>
+        <v>0.1848826366529366</v>
       </c>
       <c r="F17">
-        <v>1.146227365061378</v>
+        <v>1.286195609664418</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.272023775730176</v>
+        <v>0.2001278590129942</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.63790457478283</v>
+        <v>1.034206990099015</v>
       </c>
       <c r="O17">
-        <v>2.48497037739628</v>
+        <v>2.931207404103304</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.702288371400641</v>
+        <v>1.34302935130313</v>
       </c>
       <c r="C18">
-        <v>0.8651584638903387</v>
+        <v>0.2691893635182225</v>
       </c>
       <c r="D18">
-        <v>0.2481841288519462</v>
+        <v>0.2228737711618152</v>
       </c>
       <c r="E18">
-        <v>0.2276660037956049</v>
+        <v>0.1837066590382292</v>
       </c>
       <c r="F18">
-        <v>1.124156939257361</v>
+        <v>1.283302328722215</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2656475244246934</v>
+        <v>0.1987850646698917</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0.6406338741030808</v>
+        <v>1.035734984557472</v>
       </c>
       <c r="O18">
-        <v>2.439143592760104</v>
+        <v>2.926664777611421</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.669879862502626</v>
+        <v>1.333644441410115</v>
       </c>
       <c r="C19">
-        <v>0.8578003805191656</v>
+        <v>0.2669595224290049</v>
       </c>
       <c r="D19">
-        <v>0.2462707513363824</v>
+        <v>0.2224217434245617</v>
       </c>
       <c r="E19">
-        <v>0.2258634487158702</v>
+        <v>0.1833099351380696</v>
       </c>
       <c r="F19">
-        <v>1.116733505771705</v>
+        <v>1.282336883414374</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2634966105314192</v>
+        <v>0.1983323008140871</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0.6415804645625371</v>
+        <v>1.036260158783605</v>
       </c>
       <c r="O19">
-        <v>2.423754815182519</v>
+        <v>2.925162269982309</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.815855159734497</v>
+        <v>1.375884220153296</v>
       </c>
       <c r="C20">
-        <v>0.8909319153393369</v>
+        <v>0.2769910279284602</v>
       </c>
       <c r="D20">
-        <v>0.2548964273345291</v>
+        <v>0.2244609650525149</v>
       </c>
       <c r="E20">
-        <v>0.2339964367729479</v>
+        <v>0.1851009684252745</v>
       </c>
       <c r="F20">
-        <v>1.150335830318824</v>
+        <v>1.286737823787846</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.2732077287438273</v>
+        <v>0.200377274814187</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.6374102244858761</v>
+        <v>1.033927907589906</v>
       </c>
       <c r="O20">
-        <v>2.493513265267921</v>
+        <v>2.932065035159809</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>4.308892617178685</v>
+        <v>1.517914568988544</v>
       </c>
       <c r="C21">
-        <v>1.00263530529844</v>
+        <v>0.3106410283911885</v>
       </c>
       <c r="D21">
-        <v>0.2841627345285787</v>
+        <v>0.2314004060063866</v>
       </c>
       <c r="E21">
-        <v>0.2617201947386576</v>
+        <v>0.1912187921368016</v>
       </c>
       <c r="F21">
-        <v>1.266870648455026</v>
+        <v>1.302511397545928</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3064302430630192</v>
+        <v>0.2073792297688328</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.6250231935344033</v>
+        <v>1.026635814959555</v>
       </c>
       <c r="O21">
-        <v>2.73729503998058</v>
+        <v>2.957735013381551</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.633357998441056</v>
+        <v>1.610815041000251</v>
       </c>
       <c r="C22">
-        <v>1.07598843305604</v>
+        <v>0.332590826921944</v>
       </c>
       <c r="D22">
-        <v>0.303525551137426</v>
+        <v>0.2360008134489675</v>
       </c>
       <c r="E22">
-        <v>0.2801683429420123</v>
+        <v>0.1952916936769071</v>
       </c>
       <c r="F22">
-        <v>1.346003009862144</v>
+        <v>1.313557496809665</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3286352876781962</v>
+        <v>0.2120532754537692</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.6182114595867318</v>
+        <v>1.022275264201454</v>
       </c>
       <c r="O22">
-        <v>2.904298095904778</v>
+        <v>2.976364054784341</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>4.45995898956636</v>
+        <v>1.561225851994607</v>
       </c>
       <c r="C23">
-        <v>1.036802502898013</v>
+        <v>0.3208798042343517</v>
       </c>
       <c r="D23">
-        <v>0.2931681530328092</v>
+        <v>0.2335395638135935</v>
       </c>
       <c r="E23">
-        <v>0.2702899370834473</v>
+        <v>0.1931110963544498</v>
       </c>
       <c r="F23">
-        <v>1.303479368260142</v>
+        <v>1.307594438182406</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.316735705684863</v>
+        <v>0.2095496860554533</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0.621724643786699</v>
+        <v>1.024565500921391</v>
       </c>
       <c r="O23">
-        <v>2.814418080029753</v>
+        <v>2.966251545344676</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.807829949563484</v>
+        <v>1.373564180044355</v>
       </c>
       <c r="C24">
-        <v>0.8891111852496181</v>
+        <v>0.2764403459146081</v>
       </c>
       <c r="D24">
-        <v>0.2544217295712485</v>
+        <v>0.2243486487598148</v>
       </c>
       <c r="E24">
-        <v>0.2335483935440053</v>
+        <v>0.185002236162461</v>
       </c>
       <c r="F24">
-        <v>1.148477509374516</v>
+        <v>1.286492435841666</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2726723237787922</v>
+        <v>0.2002644816732442</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0.6376333022693004</v>
+        <v>1.03405393686144</v>
       </c>
       <c r="O24">
-        <v>2.489648723457663</v>
+        <v>2.93167666161537</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.112035103468827</v>
+        <v>1.171508640566856</v>
       </c>
       <c r="C25">
-        <v>0.7309168402518367</v>
+        <v>0.2283346660692587</v>
       </c>
       <c r="D25">
-        <v>0.2134940330924024</v>
+        <v>0.2147171087037236</v>
       </c>
       <c r="E25">
-        <v>0.1951256048737164</v>
+        <v>0.1765763831437752</v>
       </c>
       <c r="F25">
-        <v>0.9923959844286259</v>
+        <v>1.266885412408286</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.226947139721247</v>
+        <v>0.1906681233375451</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0.6598443046058264</v>
+        <v>1.046029786764343</v>
       </c>
       <c r="O25">
-        <v>2.168083567871747</v>
+        <v>2.902297696862945</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_5_206/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_206/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.023065755193443</v>
+        <v>2.604208786602328</v>
       </c>
       <c r="C2">
-        <v>0.1927725476481896</v>
+        <v>0.6149946890945444</v>
       </c>
       <c r="D2">
-        <v>0.207869663336254</v>
+        <v>0.1839524743972021</v>
       </c>
       <c r="E2">
-        <v>0.1706476245223456</v>
+        <v>0.1676644369986491</v>
       </c>
       <c r="F2">
-        <v>1.255145777563001</v>
+        <v>0.8853640815082571</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,7 +445,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1839599612594895</v>
+        <v>0.1945155304486121</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -457,10 +457,10 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.056347490988209</v>
+        <v>0.6800805385245141</v>
       </c>
       <c r="O2">
-        <v>2.887423348435817</v>
+        <v>1.951773254048618</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.9226797810773064</v>
+        <v>2.261922312591139</v>
       </c>
       <c r="C3">
-        <v>0.1685860552133249</v>
+        <v>0.5366023268584854</v>
       </c>
       <c r="D3">
-        <v>0.2033822855064784</v>
+        <v>0.1642339033656839</v>
       </c>
       <c r="E3">
-        <v>0.1668010292405455</v>
+        <v>0.1494768190221478</v>
       </c>
       <c r="F3">
-        <v>1.248864296630501</v>
+        <v>0.816999955447983</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1796355010558415</v>
+        <v>0.1731655466297468</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -504,10 +504,10 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.064277073866833</v>
+        <v>0.6960082082860808</v>
       </c>
       <c r="O3">
-        <v>2.881533560150871</v>
+        <v>1.816019115664943</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.8611533150804576</v>
+        <v>2.052405685514202</v>
       </c>
       <c r="C4">
-        <v>0.1536945318088669</v>
+        <v>0.488500423934056</v>
       </c>
       <c r="D4">
-        <v>0.2007029652278334</v>
+        <v>0.1522551943179167</v>
       </c>
       <c r="E4">
-        <v>0.1645237336687053</v>
+        <v>0.1384898710238716</v>
       </c>
       <c r="F4">
-        <v>1.245831171726437</v>
+        <v>0.7768554177944509</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,7 +539,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1770892791536269</v>
+        <v>0.1603243164979133</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -551,10 +551,10 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.069608717379921</v>
+        <v>0.7068162901173309</v>
       </c>
       <c r="O4">
-        <v>2.879976776102978</v>
+        <v>1.737432040615687</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8361099128395324</v>
+        <v>1.967152393235295</v>
       </c>
       <c r="C5">
-        <v>0.1476161486325509</v>
+        <v>0.4688995325234657</v>
       </c>
       <c r="D5">
-        <v>0.199630304737255</v>
+        <v>0.1474033473025997</v>
       </c>
       <c r="E5">
-        <v>0.1636169988557015</v>
+        <v>0.1340540651432143</v>
       </c>
       <c r="F5">
-        <v>1.244802045488129</v>
+        <v>0.7609252853070458</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1760790637621525</v>
+        <v>0.1551528816228114</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -598,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.071897886162361</v>
+        <v>0.7114703995308176</v>
       </c>
       <c r="O5">
-        <v>2.879859350500169</v>
+        <v>1.706525086841822</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.8319532710856663</v>
+        <v>1.953002757593509</v>
       </c>
       <c r="C6">
-        <v>0.1466062453235679</v>
+        <v>0.4656446901429661</v>
       </c>
       <c r="D6">
-        <v>0.1994533515173913</v>
+        <v>0.1465994104959236</v>
       </c>
       <c r="E6">
-        <v>0.1634677223633823</v>
+        <v>0.133319898136314</v>
       </c>
       <c r="F6">
-        <v>1.244643649030728</v>
+        <v>0.758305129816975</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.1759129719728563</v>
+        <v>0.1542977166442014</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -645,10 +645,10 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.07228503891784</v>
+        <v>0.7122580440094026</v>
       </c>
       <c r="O6">
-        <v>2.879871049352658</v>
+        <v>1.701458256332188</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.8608154514010948</v>
+        <v>2.05125546466229</v>
       </c>
       <c r="C7">
-        <v>0.1536125965313602</v>
+        <v>0.4882360840207696</v>
       </c>
       <c r="D7">
-        <v>0.2006884211612459</v>
+        <v>0.1521896443938289</v>
       </c>
       <c r="E7">
-        <v>0.1645114189223023</v>
+        <v>0.1384298852708241</v>
       </c>
       <c r="F7">
-        <v>1.245816455169162</v>
+        <v>0.7766388813172682</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,7 +680,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1770755441596066</v>
+        <v>0.1602543313218803</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -692,10 +692,10 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.069639118158605</v>
+        <v>0.7068780572774571</v>
       </c>
       <c r="O7">
-        <v>2.879973100468391</v>
+        <v>1.737010795577476</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.9884303583442033</v>
+        <v>2.486030879462589</v>
       </c>
       <c r="C8">
-        <v>0.1844417240303926</v>
+        <v>0.5879542039029388</v>
       </c>
       <c r="D8">
-        <v>0.2063067025765832</v>
+        <v>0.1771251099543321</v>
       </c>
       <c r="E8">
-        <v>0.1693037883257276</v>
+        <v>0.1613535101571202</v>
       </c>
       <c r="F8">
-        <v>1.252808809370407</v>
+        <v>0.8613925704981682</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1824462465179408</v>
+        <v>0.1870948482106556</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -739,10 +739,10 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.058985601662734</v>
+        <v>0.6853534458039476</v>
       </c>
       <c r="O8">
-        <v>2.884964521375366</v>
+        <v>1.903925940054592</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.23952128261061</v>
+        <v>3.345587140903433</v>
       </c>
       <c r="C9">
-        <v>0.2445615781982156</v>
+        <v>0.7840932939327843</v>
       </c>
       <c r="D9">
-        <v>0.2179236783230749</v>
+        <v>0.2271788202371567</v>
       </c>
       <c r="E9">
-        <v>0.1793718603240748</v>
+        <v>0.2079262496113046</v>
       </c>
       <c r="F9">
-        <v>1.273070072568558</v>
+        <v>1.043641024526806</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,7 +774,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1938449379016163</v>
+        <v>0.2421378150231703</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -786,10 +786,10 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.041762886983051</v>
+        <v>0.6517300694262005</v>
       </c>
       <c r="O9">
-        <v>2.911141077063832</v>
+        <v>2.272955101639923</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.424471702277174</v>
+        <v>3.984127915484692</v>
       </c>
       <c r="C10">
-        <v>0.288515908351286</v>
+        <v>0.9290899931537524</v>
       </c>
       <c r="D10">
-        <v>0.2268211270905738</v>
+        <v>0.2648625981275643</v>
       </c>
       <c r="E10">
-        <v>0.1871778862981373</v>
+        <v>0.2434151994439731</v>
       </c>
       <c r="F10">
-        <v>1.291970975281203</v>
+        <v>1.189590224092669</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,7 +821,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.202751576907886</v>
+        <v>0.2844742496894952</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -833,10 +833,10 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.031341643504305</v>
+        <v>0.6328946333172709</v>
       </c>
       <c r="O10">
-        <v>2.940435813039528</v>
+        <v>2.575321226408164</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.508706660822043</v>
+        <v>4.276820837480727</v>
       </c>
       <c r="C11">
-        <v>0.308462990223461</v>
+        <v>0.9953780790375788</v>
       </c>
       <c r="D11">
-        <v>0.2309469371558919</v>
+        <v>0.2822530807830788</v>
       </c>
       <c r="E11">
-        <v>0.1908180179119228</v>
+        <v>0.2599052495155476</v>
       </c>
       <c r="F11">
-        <v>1.301446358644796</v>
+        <v>1.25915182760717</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2069198117532665</v>
+        <v>0.3042498366353072</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.02708470926904</v>
+        <v>0.6257525902856358</v>
       </c>
       <c r="O11">
-        <v>2.955963794899986</v>
+        <v>2.721065193466558</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.540617658665553</v>
+        <v>4.38803566352351</v>
       </c>
       <c r="C12">
-        <v>0.3160092671065797</v>
+        <v>1.020538673157063</v>
       </c>
       <c r="D12">
-        <v>0.2325204645426311</v>
+        <v>0.288878503752855</v>
       </c>
       <c r="E12">
-        <v>0.1922092487580187</v>
+        <v>0.2662055736661486</v>
       </c>
       <c r="F12">
-        <v>1.305160925925193</v>
+        <v>1.285998396942631</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2085150194369163</v>
+        <v>0.3118220232919526</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -927,10 +927,10 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.02554222902755</v>
+        <v>0.6232670790187811</v>
       </c>
       <c r="O12">
-        <v>2.962161591097868</v>
+        <v>2.777560983556782</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.533744495399219</v>
+        <v>4.364065729132335</v>
       </c>
       <c r="C13">
-        <v>0.3143843694167003</v>
+        <v>1.015117081626073</v>
       </c>
       <c r="D13">
-        <v>0.2321810817752947</v>
+        <v>0.2874497467293651</v>
       </c>
       <c r="E13">
-        <v>0.1919090537717381</v>
+        <v>0.2648460963732973</v>
       </c>
       <c r="F13">
-        <v>1.304355299006957</v>
+        <v>1.280193211377536</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2081707158658901</v>
+        <v>0.3101873421385903</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -974,10 +974,10 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.025871337917366</v>
+        <v>0.6237924037479772</v>
       </c>
       <c r="O13">
-        <v>2.960812638224553</v>
+        <v>2.765333393566976</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.511331744020083</v>
+        <v>4.285962605597035</v>
       </c>
       <c r="C14">
-        <v>0.309083974285187</v>
+        <v>0.9974468092492543</v>
       </c>
       <c r="D14">
-        <v>0.2310761687940754</v>
+        <v>0.2827973298211504</v>
       </c>
       <c r="E14">
-        <v>0.1909322190827254</v>
+        <v>0.2604224235463093</v>
       </c>
       <c r="F14">
-        <v>1.301749422487234</v>
+        <v>1.261350089987928</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2070507138490711</v>
+        <v>0.3048710732273179</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1021,10 +1021,10 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.026956415208005</v>
+        <v>0.6255436325472203</v>
       </c>
       <c r="O14">
-        <v>2.956467318163504</v>
+        <v>2.725686201470097</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.49760494594733</v>
+        <v>4.238173316990185</v>
       </c>
       <c r="C15">
-        <v>0.305836374589461</v>
+        <v>0.9866312666456736</v>
       </c>
       <c r="D15">
-        <v>0.2304008300598639</v>
+        <v>0.2799529384777628</v>
       </c>
       <c r="E15">
-        <v>0.1903355447879989</v>
+        <v>0.2577202675542409</v>
       </c>
       <c r="F15">
-        <v>1.300169723547157</v>
+        <v>1.249875451403753</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2063668673021084</v>
+        <v>0.3016258827307468</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.027630110142908</v>
+        <v>0.6266452661200574</v>
       </c>
       <c r="O15">
-        <v>2.953847088695142</v>
+        <v>2.701575148393289</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.418968648510599</v>
+        <v>3.965049334959758</v>
       </c>
       <c r="C16">
-        <v>0.2872113242813157</v>
+        <v>0.9247654782531924</v>
       </c>
       <c r="D16">
-        <v>0.2265530639960787</v>
+        <v>0.2637314438394611</v>
       </c>
       <c r="E16">
-        <v>0.1869417865490348</v>
+        <v>0.2423450115583279</v>
       </c>
       <c r="F16">
-        <v>1.291369414790438</v>
+        <v>1.185112105199693</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2024815207006014</v>
+        <v>0.2831930416522255</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1115,10 +1115,10 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.031629575323244</v>
+        <v>0.6333912494312983</v>
       </c>
       <c r="O16">
-        <v>2.939465419121035</v>
+        <v>2.565972070231993</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.370752502622054</v>
+        <v>3.798105299500548</v>
       </c>
       <c r="C17">
-        <v>0.2757729229537631</v>
+        <v>0.8869047803971739</v>
       </c>
       <c r="D17">
-        <v>0.2242125792822804</v>
+        <v>0.2538465837389197</v>
       </c>
       <c r="E17">
-        <v>0.1848826366529366</v>
+        <v>0.233005613786041</v>
       </c>
       <c r="F17">
-        <v>1.286195609664418</v>
+        <v>1.146227365061378</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2001278590129942</v>
+        <v>0.2720237757302044</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.034206990099015</v>
+        <v>0.637904574782759</v>
       </c>
       <c r="O17">
-        <v>2.931207404103304</v>
+        <v>2.48497037739628</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.34302935130313</v>
+        <v>3.702288371400527</v>
       </c>
       <c r="C18">
-        <v>0.2691893635182225</v>
+        <v>0.8651584638904524</v>
       </c>
       <c r="D18">
-        <v>0.2228737711618152</v>
+        <v>0.2481841288521593</v>
       </c>
       <c r="E18">
-        <v>0.1837066590382292</v>
+        <v>0.2276660037955907</v>
       </c>
       <c r="F18">
-        <v>1.283302328722215</v>
+        <v>1.124156939257361</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,7 +1197,7 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1987850646698917</v>
+        <v>0.2656475244246508</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1209,10 +1209,10 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.035734984557472</v>
+        <v>0.6406338741030737</v>
       </c>
       <c r="O18">
-        <v>2.926664777611421</v>
+        <v>2.439143592760104</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.333644441410115</v>
+        <v>3.669879862502739</v>
       </c>
       <c r="C19">
-        <v>0.2669595224290049</v>
+        <v>0.8578003805191372</v>
       </c>
       <c r="D19">
-        <v>0.2224217434245617</v>
+        <v>0.2462707513365103</v>
       </c>
       <c r="E19">
-        <v>0.1833099351380696</v>
+        <v>0.2258634487158631</v>
       </c>
       <c r="F19">
-        <v>1.282336883414374</v>
+        <v>1.116733505771705</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1983323008140871</v>
+        <v>0.2634966105313765</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1256,10 +1256,10 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.036260158783605</v>
+        <v>0.6415804645625371</v>
       </c>
       <c r="O19">
-        <v>2.925162269982309</v>
+        <v>2.423754815182548</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.375884220153296</v>
+        <v>3.815855159734497</v>
       </c>
       <c r="C20">
-        <v>0.2769910279284602</v>
+        <v>0.8909319153389106</v>
       </c>
       <c r="D20">
-        <v>0.2244609650525149</v>
+        <v>0.2548964273345149</v>
       </c>
       <c r="E20">
-        <v>0.1851009684252745</v>
+        <v>0.2339964367729266</v>
       </c>
       <c r="F20">
-        <v>1.286737823787846</v>
+        <v>1.150335830318809</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.200377274814187</v>
+        <v>0.2732077287437846</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.033927907589906</v>
+        <v>0.637410224485869</v>
       </c>
       <c r="O20">
-        <v>2.932065035159809</v>
+        <v>2.493513265267921</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.517914568988544</v>
+        <v>4.308892617178685</v>
       </c>
       <c r="C21">
-        <v>0.3106410283911885</v>
+        <v>1.002635305298668</v>
       </c>
       <c r="D21">
-        <v>0.2314004060063866</v>
+        <v>0.2841627345285787</v>
       </c>
       <c r="E21">
-        <v>0.1912187921368016</v>
+        <v>0.2617201947386789</v>
       </c>
       <c r="F21">
-        <v>1.302511397545928</v>
+        <v>1.266870648455011</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2073792297688328</v>
+        <v>0.3064302430630903</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.026635814959555</v>
+        <v>0.6250231935343962</v>
       </c>
       <c r="O21">
-        <v>2.957735013381551</v>
+        <v>2.737295039980665</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.610815041000251</v>
+        <v>4.63335799844117</v>
       </c>
       <c r="C22">
-        <v>0.332590826921944</v>
+        <v>1.075988433056352</v>
       </c>
       <c r="D22">
-        <v>0.2360008134489675</v>
+        <v>0.3035255511372412</v>
       </c>
       <c r="E22">
-        <v>0.1952916936769071</v>
+        <v>0.2801683429420407</v>
       </c>
       <c r="F22">
-        <v>1.313557496809665</v>
+        <v>1.34600300986213</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,7 +1385,7 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2120532754537692</v>
+        <v>0.3286352876781535</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.022275264201454</v>
+        <v>0.618211459586739</v>
       </c>
       <c r="O22">
-        <v>2.976364054784341</v>
+        <v>2.904298095904664</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.561225851994607</v>
+        <v>4.459958989566246</v>
       </c>
       <c r="C23">
-        <v>0.3208798042343517</v>
+        <v>1.036802502897785</v>
       </c>
       <c r="D23">
-        <v>0.2335395638135935</v>
+        <v>0.2931681530329229</v>
       </c>
       <c r="E23">
-        <v>0.1931110963544498</v>
+        <v>0.270289937083426</v>
       </c>
       <c r="F23">
-        <v>1.307594438182406</v>
+        <v>1.303479368260142</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2095496860554533</v>
+        <v>0.316735705684863</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1444,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.024565500921391</v>
+        <v>0.6217246437866848</v>
       </c>
       <c r="O23">
-        <v>2.966251545344676</v>
+        <v>2.814418080029697</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.373564180044355</v>
+        <v>3.80782994956337</v>
       </c>
       <c r="C24">
-        <v>0.2764403459146081</v>
+        <v>0.8891111852493623</v>
       </c>
       <c r="D24">
-        <v>0.2243486487598148</v>
+        <v>0.254421729571348</v>
       </c>
       <c r="E24">
-        <v>0.185002236162461</v>
+        <v>0.2335483935440053</v>
       </c>
       <c r="F24">
-        <v>1.286492435841666</v>
+        <v>1.148477509374516</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,7 +1479,7 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.2002644816732442</v>
+        <v>0.2726723237787638</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1491,10 +1491,10 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.03405393686144</v>
+        <v>0.6376333022693075</v>
       </c>
       <c r="O24">
-        <v>2.93167666161537</v>
+        <v>2.489648723457549</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.171508640566856</v>
+        <v>3.112035103468997</v>
       </c>
       <c r="C25">
-        <v>0.2283346660692587</v>
+        <v>0.7309168402517798</v>
       </c>
       <c r="D25">
-        <v>0.2147171087037236</v>
+        <v>0.2134940330924024</v>
       </c>
       <c r="E25">
-        <v>0.1765763831437752</v>
+        <v>0.1951256048737307</v>
       </c>
       <c r="F25">
-        <v>1.266885412408286</v>
+        <v>0.9923959844286259</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1906681233375451</v>
+        <v>0.2269471397213465</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1538,10 +1538,10 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.046029786764343</v>
+        <v>0.6598443046058264</v>
       </c>
       <c r="O25">
-        <v>2.902297696862945</v>
+        <v>2.16808356787169</v>
       </c>
     </row>
   </sheetData>
